--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Цель проекта</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>Статус</t>
-  </si>
-  <si>
-    <t>Участник А</t>
-  </si>
-  <si>
-    <t>Участинк Б</t>
   </si>
   <si>
     <r>
@@ -256,12 +250,40 @@
   <si>
     <t xml:space="preserve">Репозиторий создал VKinder_AG_ES, права дал. </t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Объектную модель спроектировал. 
+БД создал, необходимо создать скрипты на создание таблиц</t>
+  </si>
+  <si>
+    <t>Участник А - Андрей</t>
+  </si>
+  <si>
+    <t>Участинк Б - Екатерина</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Есть наработки из предыдущей курсовой, можно их использовать</t>
+  </si>
+  <si>
+    <t>В базовом (бесплатном) курсе есть наработки, их также можно использовать</t>
+  </si>
+  <si>
+    <t>Нужно проверить доступ</t>
+  </si>
+  <si>
+    <t>Создано 4 таблицы</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +384,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -389,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,68 +905,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="155" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="17.85546875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://github.com/netology-code/adpy-team-diplom/blob/main/group_settings.md"/>
+    <hyperlink ref="A9" r:id="rId1" display="https://github.com/netology-code/adpy-team-diplom/blob/main/group_settings.md"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1015,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A29:D41"/>
+  <dimension ref="A28:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,31 +1085,46 @@
     <col min="2" max="4" width="24.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="17"/>
+    </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>33</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,52 +1132,64 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C28:D28"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A32" r:id="rId1" location="2-%D1%8D%D1%82%D0%B0%D0%BF" display="2-%D1%8D%D1%82%D0%B0%D0%BF"/>
     <hyperlink ref="A35" r:id="rId2" location="3-%D1%8D%D1%82%D0%B0%D0%BF" display="https://github.com/netology-code/adpy-team-diplom/blob/main/README.md - 3-%D1%8D%D1%82%D0%B0%D0%BF"/>

--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Цель проекта</t>
   </si>
@@ -270,13 +270,16 @@
     <t>Есть наработки из предыдущей курсовой, можно их использовать</t>
   </si>
   <si>
-    <t>В базовом (бесплатном) курсе есть наработки, их также можно использовать</t>
-  </si>
-  <si>
     <t>Нужно проверить доступ</t>
   </si>
   <si>
     <t>Создано 4 таблицы</t>
+  </si>
+  <si>
+    <t>Выполнено</t>
+  </si>
+  <si>
+    <t>выполнено</t>
   </si>
 </sst>
 </file>
@@ -908,7 +911,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,6 +972,9 @@
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1075,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>45</v>
@@ -1121,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>47</v>
@@ -1132,56 +1138,65 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
